--- a/medicine/Psychotrope/White_Lady/White_Lady.xlsx
+++ b/medicine/Psychotrope/White_Lady/White_Lady.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le white lady (littéralement « dame blanche ») est un cocktail dont la couleur est blanche et le goût sec. Il est composé de gin, de triple sec et de jus de citron vert. Il titre 29,7 % d´alcool pour une contenance de 7 cl.
@@ -513,12 +525,14 @@
           <t>Recette</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">4 cl de gin ;
 2 cl de triple sec ;
 1 cl de jus de citron.
-Mettre tous ces ingrédients dans un shaker avec de la glace pilée, secouer vigoureusement puis servir dans un verre à cocktail[1].
+Mettre tous ces ingrédients dans un shaker avec de la glace pilée, secouer vigoureusement puis servir dans un verre à cocktail.
 </t>
         </is>
       </c>
